--- a/Result/1.5_1_shiftmapvsoffsetBBBB_res0.5.xlsx
+++ b/Result/1.5_1_shiftmapvsoffsetBBBB_res0.5.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="D598" sqref="D598"/>
+      <selection activeCell="D602" sqref="D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4030,12 +4030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>592</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>593</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>594</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>595</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>596</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>597</v>
       </c>
@@ -4083,17 +4083,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B602">
         <f>SUM(B2:B600)</f>
         <v>14</v>
@@ -4102,11 +4102,30 @@
         <f>SUM(C2:C600)</f>
         <v>219</v>
       </c>
+      <c r="D602">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B603">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C603">
+        <v>0.40110000000000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B604">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="C604">
+        <v>0.68769999999999998</v>
+      </c>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1048576">
         <f>SUM(B11:B1048575)</f>
-        <v>28</v>
+        <v>28.337900000000001</v>
       </c>
     </row>
   </sheetData>
